--- a/scripts/ESO-2.2m/schedules/P111/schedule-ESO-2.2m-P111.xlsx
+++ b/scripts/ESO-2.2m/schedules/P111/schedule-ESO-2.2m-P111.xlsx
@@ -43,18 +43,21 @@
     <t xml:space="preserve">DDT</t>
   </si>
   <si>
+    <t xml:space="preserve">MPIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Régis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROND ToO, QSO</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chile</t>
   </si>
   <si>
-    <t xml:space="preserve">Chaname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Régis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GROND ToO, QSO</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vines</t>
   </si>
   <si>
@@ -62,9 +65,6 @@
   </si>
   <si>
     <t xml:space="preserve">Maren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MPIA</t>
   </si>
   <si>
     <t xml:space="preserve">Hobson-P110, Varga 1 hr</t>
@@ -249,14 +249,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB4C7DC"/>
-        <bgColor rgb="FFD5CDC4"/>
+        <fgColor rgb="FFD5CDC4"/>
+        <bgColor rgb="FFB4C7DC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD5CDC4"/>
-        <bgColor rgb="FFB4C7DC"/>
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FFD5CDC4"/>
       </patternFill>
     </fill>
     <fill>
@@ -306,7 +306,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -327,19 +327,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -443,9 +451,9 @@
   <dimension ref="A1:G184"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C119" activeCellId="0" sqref="C119"/>
+      <selection pane="bottomLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -631,115 +639,115 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
+      <c r="A10" s="8" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44660</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
+      <c r="A11" s="8" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44661</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="D11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="9"/>
       <c r="F11" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
+      <c r="A12" s="8" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44662</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="6"/>
+      <c r="C12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="9"/>
       <c r="F12" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
+      <c r="A13" s="8" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44663</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="6"/>
+      <c r="C13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="9"/>
       <c r="F13" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
+      <c r="A14" s="8" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44664</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="6"/>
+      <c r="C14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="9"/>
       <c r="F14" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="n">
+      <c r="A15" s="10" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44665</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="6"/>
+      <c r="C15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="9"/>
       <c r="F15" s="7" t="s">
         <v>10</v>
       </c>
@@ -750,13 +758,13 @@
         <v>44666</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>10</v>
@@ -767,14 +775,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44667</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>14</v>
+      <c r="B17" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>10</v>
@@ -785,14 +793,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44668</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>14</v>
+      <c r="B18" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>10</v>
@@ -803,14 +811,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44669</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>14</v>
+      <c r="B19" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>10</v>
@@ -821,14 +829,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44670</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>14</v>
+      <c r="B20" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>10</v>
@@ -839,8 +847,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44671</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>14</v>
+      <c r="B21" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>15</v>
@@ -857,8 +865,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44672</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>14</v>
+      <c r="B22" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>15</v>
@@ -875,8 +883,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44673</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>14</v>
+      <c r="B23" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>15</v>
@@ -893,8 +901,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44674</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>14</v>
+      <c r="B24" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>18</v>
@@ -911,8 +919,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44675</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>14</v>
+      <c r="B25" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>18</v>
@@ -929,8 +937,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44676</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>14</v>
+      <c r="B26" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>18</v>
@@ -947,8 +955,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44677</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>14</v>
+      <c r="B27" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>18</v>
@@ -965,8 +973,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44678</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>14</v>
+      <c r="B28" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>18</v>
@@ -983,8 +991,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44679</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>14</v>
+      <c r="B29" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>18</v>
@@ -1001,8 +1009,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44680</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>14</v>
+      <c r="B30" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>18</v>
@@ -1019,8 +1027,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44681</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>14</v>
+      <c r="B31" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>18</v>
@@ -1037,8 +1045,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44682</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>14</v>
+      <c r="B32" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>18</v>
@@ -1055,8 +1063,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44683</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>14</v>
+      <c r="B33" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>18</v>
@@ -1073,8 +1081,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44684</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>14</v>
+      <c r="B34" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>18</v>
@@ -1091,8 +1099,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44685</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>14</v>
+      <c r="B35" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>18</v>
@@ -1109,8 +1117,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44686</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>14</v>
+      <c r="B36" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>21</v>
@@ -1127,8 +1135,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44687</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>14</v>
+      <c r="B37" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>21</v>
@@ -1145,8 +1153,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44688</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>14</v>
+      <c r="B38" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>22</v>
@@ -1163,10 +1171,10 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44689</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="9" t="s">
+      <c r="B39" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -1181,10 +1189,10 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44690</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="9" t="s">
+      <c r="B40" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -1199,10 +1207,10 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44691</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="9" t="s">
+      <c r="B41" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -1217,14 +1225,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44692</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>10</v>
@@ -1235,14 +1243,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44693</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>14</v>
+      <c r="B43" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>10</v>
@@ -1253,14 +1261,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44694</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>10</v>
@@ -1271,14 +1279,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44695</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>10</v>
@@ -1289,10 +1297,10 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44696</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="9" t="s">
+      <c r="B46" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -1307,10 +1315,10 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44697</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" s="9" t="s">
+      <c r="B47" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -1325,8 +1333,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44698</v>
       </c>
-      <c r="B48" s="9" t="s">
-        <v>14</v>
+      <c r="B48" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>26</v>
@@ -1343,8 +1351,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44699</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>14</v>
+      <c r="B49" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>26</v>
@@ -1361,8 +1369,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44700</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>14</v>
+      <c r="B50" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>26</v>
@@ -1379,8 +1387,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44701</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>14</v>
+      <c r="B51" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>27</v>
@@ -1397,8 +1405,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44702</v>
       </c>
-      <c r="B52" s="9" t="s">
-        <v>14</v>
+      <c r="B52" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>27</v>
@@ -1415,8 +1423,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44703</v>
       </c>
-      <c r="B53" s="9" t="s">
-        <v>14</v>
+      <c r="B53" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>27</v>
@@ -1433,8 +1441,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44704</v>
       </c>
-      <c r="B54" s="9" t="s">
-        <v>14</v>
+      <c r="B54" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>27</v>
@@ -1451,8 +1459,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44705</v>
       </c>
-      <c r="B55" s="9" t="s">
-        <v>14</v>
+      <c r="B55" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>27</v>
@@ -1469,8 +1477,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44706</v>
       </c>
-      <c r="B56" s="9" t="s">
-        <v>14</v>
+      <c r="B56" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>27</v>
@@ -1487,8 +1495,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44707</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>14</v>
+      <c r="B57" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>27</v>
@@ -1505,8 +1513,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44708</v>
       </c>
-      <c r="B58" s="9" t="s">
-        <v>14</v>
+      <c r="B58" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>27</v>
@@ -1523,8 +1531,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44709</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>14</v>
+      <c r="B59" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>27</v>
@@ -1541,8 +1549,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44710</v>
       </c>
-      <c r="B60" s="9" t="s">
-        <v>14</v>
+      <c r="B60" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>27</v>
@@ -1559,8 +1567,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44711</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>14</v>
+      <c r="B61" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>27</v>
@@ -1577,8 +1585,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44712</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>14</v>
+      <c r="B62" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>27</v>
@@ -1595,8 +1603,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44713</v>
       </c>
-      <c r="B63" s="9" t="s">
-        <v>14</v>
+      <c r="B63" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>27</v>
@@ -1613,8 +1621,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44714</v>
       </c>
-      <c r="B64" s="9" t="s">
-        <v>14</v>
+      <c r="B64" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>27</v>
@@ -1631,8 +1639,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44715</v>
       </c>
-      <c r="B65" s="9" t="s">
-        <v>14</v>
+      <c r="B65" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>27</v>
@@ -1645,191 +1653,191 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="8" t="n">
+      <c r="A66" s="10" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44716</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="6" t="s">
+      <c r="B66" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E66" s="6"/>
+      <c r="E66" s="9"/>
       <c r="F66" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="8" t="n">
+      <c r="A67" s="10" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44717</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" s="6" t="s">
+      <c r="B67" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D67" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E67" s="6"/>
+      <c r="E67" s="9"/>
       <c r="F67" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="8" t="n">
+      <c r="A68" s="10" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44718</v>
       </c>
-      <c r="B68" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="6" t="s">
+      <c r="B68" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D68" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E68" s="6"/>
+      <c r="E68" s="9"/>
       <c r="F68" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="8" t="n">
+      <c r="A69" s="10" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44719</v>
       </c>
-      <c r="B69" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="6" t="s">
+      <c r="B69" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E69" s="6"/>
+      <c r="E69" s="9"/>
       <c r="F69" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="8" t="n">
+      <c r="A70" s="10" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44720</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" s="6" t="s">
+      <c r="B70" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E70" s="6"/>
+      <c r="E70" s="9"/>
       <c r="F70" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="8" t="n">
+      <c r="A71" s="10" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44721</v>
       </c>
-      <c r="B71" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" s="6" t="s">
+      <c r="B71" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D71" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E71" s="6"/>
+      <c r="E71" s="9"/>
       <c r="F71" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="8" t="n">
+      <c r="A72" s="10" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44722</v>
       </c>
-      <c r="B72" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" s="6" t="s">
+      <c r="B72" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E72" s="6"/>
+      <c r="E72" s="9"/>
       <c r="F72" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="8" t="n">
+      <c r="A73" s="10" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44723</v>
       </c>
-      <c r="B73" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" s="6" t="s">
+      <c r="B73" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D73" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E73" s="6"/>
+      <c r="E73" s="9"/>
       <c r="F73" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="8" t="n">
+      <c r="A74" s="10" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44724</v>
       </c>
-      <c r="B74" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" s="6" t="s">
+      <c r="B74" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D74" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E74" s="6"/>
+      <c r="D74" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="9"/>
       <c r="F74" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="8" t="n">
+      <c r="A75" s="10" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44725</v>
       </c>
-      <c r="B75" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" s="6" t="s">
+      <c r="B75" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D75" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E75" s="6"/>
+      <c r="D75" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="9"/>
       <c r="F75" s="7" t="s">
         <v>10</v>
       </c>
@@ -1839,14 +1847,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44726</v>
       </c>
-      <c r="B76" s="9" t="s">
-        <v>14</v>
+      <c r="B76" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>10</v>
@@ -1857,14 +1865,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44727</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>10</v>
@@ -1875,14 +1883,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44728</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>10</v>
@@ -1893,14 +1901,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44729</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>10</v>
@@ -1911,185 +1919,185 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44730</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C80" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="F80" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="10" t="n">
+      <c r="A81" s="12" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44731</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11" t="s">
+      <c r="C81" s="13"/>
+      <c r="D81" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E81" s="11"/>
+      <c r="E81" s="13"/>
       <c r="F81" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="10" t="n">
+      <c r="A82" s="12" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44732</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11" t="s">
+      <c r="C82" s="13"/>
+      <c r="D82" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E82" s="11"/>
+      <c r="E82" s="13"/>
       <c r="F82" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="10" t="n">
+      <c r="A83" s="12" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44733</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11" t="s">
+      <c r="C83" s="13"/>
+      <c r="D83" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E83" s="11"/>
+      <c r="E83" s="13"/>
       <c r="F83" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="10" t="n">
+      <c r="A84" s="12" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44734</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B84" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11" t="s">
+      <c r="C84" s="13"/>
+      <c r="D84" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E84" s="11"/>
+      <c r="E84" s="13"/>
       <c r="F84" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="10" t="n">
+      <c r="A85" s="12" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44735</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B85" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11" t="s">
+      <c r="C85" s="13"/>
+      <c r="D85" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E85" s="11"/>
+      <c r="E85" s="13"/>
       <c r="F85" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="10" t="n">
+      <c r="A86" s="12" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44736</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B86" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11" t="s">
+      <c r="C86" s="13"/>
+      <c r="D86" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E86" s="11"/>
+      <c r="E86" s="13"/>
       <c r="F86" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="10" t="n">
+      <c r="A87" s="12" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44737</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B87" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11" t="s">
+      <c r="C87" s="13"/>
+      <c r="D87" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E87" s="11"/>
+      <c r="E87" s="13"/>
       <c r="F87" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="10" t="n">
+      <c r="A88" s="12" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44738</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="B88" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11" t="s">
+      <c r="C88" s="13"/>
+      <c r="D88" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E88" s="11"/>
+      <c r="E88" s="13"/>
       <c r="F88" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="10" t="n">
+      <c r="A89" s="12" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44739</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B89" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11" t="s">
+      <c r="C89" s="13"/>
+      <c r="D89" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E89" s="11"/>
+      <c r="E89" s="13"/>
       <c r="F89" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="10" t="n">
+      <c r="A90" s="12" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44740</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="B90" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11" t="s">
+      <c r="C90" s="13"/>
+      <c r="D90" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E90" s="11"/>
+      <c r="E90" s="13"/>
       <c r="F90" s="7" t="s">
         <v>10</v>
       </c>
@@ -2100,7 +2108,7 @@
         <v>44741</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>37</v>
@@ -2117,8 +2125,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44742</v>
       </c>
-      <c r="B92" s="9" t="s">
-        <v>14</v>
+      <c r="B92" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>37</v>
@@ -2135,8 +2143,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44743</v>
       </c>
-      <c r="B93" s="9" t="s">
-        <v>14</v>
+      <c r="B93" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>37</v>
@@ -2153,8 +2161,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44744</v>
       </c>
-      <c r="B94" s="9" t="s">
-        <v>14</v>
+      <c r="B94" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>37</v>
@@ -2171,8 +2179,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44745</v>
       </c>
-      <c r="B95" s="9" t="s">
-        <v>14</v>
+      <c r="B95" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>37</v>
@@ -2189,8 +2197,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44746</v>
       </c>
-      <c r="B96" s="9" t="s">
-        <v>14</v>
+      <c r="B96" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>37</v>
@@ -2207,8 +2215,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44747</v>
       </c>
-      <c r="B97" s="9" t="s">
-        <v>14</v>
+      <c r="B97" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>37</v>
@@ -2225,8 +2233,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44748</v>
       </c>
-      <c r="B98" s="9" t="s">
-        <v>14</v>
+      <c r="B98" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>37</v>
@@ -2243,8 +2251,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44749</v>
       </c>
-      <c r="B99" s="9" t="s">
-        <v>14</v>
+      <c r="B99" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>37</v>
@@ -2261,8 +2269,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44750</v>
       </c>
-      <c r="B100" s="9" t="s">
-        <v>14</v>
+      <c r="B100" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>37</v>
@@ -2279,8 +2287,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44751</v>
       </c>
-      <c r="B101" s="9" t="s">
-        <v>14</v>
+      <c r="B101" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>37</v>
@@ -2297,14 +2305,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44752</v>
       </c>
-      <c r="B102" s="9" t="s">
-        <v>14</v>
+      <c r="B102" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F102" s="7" t="s">
         <v>10</v>
@@ -2315,14 +2323,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44753</v>
       </c>
-      <c r="B103" s="9" t="s">
-        <v>14</v>
+      <c r="B103" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F103" s="7" t="s">
         <v>10</v>
@@ -2333,14 +2341,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44754</v>
       </c>
-      <c r="B104" s="9" t="s">
-        <v>14</v>
+      <c r="B104" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F104" s="7" t="s">
         <v>10</v>
@@ -2351,14 +2359,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44755</v>
       </c>
-      <c r="B105" s="9" t="s">
-        <v>14</v>
+      <c r="B105" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F105" s="7" t="s">
         <v>10</v>
@@ -2369,14 +2377,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44756</v>
       </c>
-      <c r="B106" s="9" t="s">
-        <v>14</v>
+      <c r="B106" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F106" s="7" t="s">
         <v>10</v>
@@ -2387,14 +2395,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44757</v>
       </c>
-      <c r="B107" s="9" t="s">
-        <v>14</v>
+      <c r="B107" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F107" s="7" t="s">
         <v>10</v>
@@ -2405,14 +2413,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44758</v>
       </c>
-      <c r="B108" s="9" t="s">
-        <v>14</v>
+      <c r="B108" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F108" s="7" t="s">
         <v>10</v>
@@ -2423,8 +2431,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44759</v>
       </c>
-      <c r="B109" s="9" t="s">
-        <v>14</v>
+      <c r="B109" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>22</v>
@@ -2441,8 +2449,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44760</v>
       </c>
-      <c r="B110" s="9" t="s">
-        <v>14</v>
+      <c r="B110" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>40</v>
@@ -2459,8 +2467,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44761</v>
       </c>
-      <c r="B111" s="9" t="s">
-        <v>14</v>
+      <c r="B111" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>27</v>
@@ -2477,8 +2485,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44762</v>
       </c>
-      <c r="B112" s="9" t="s">
-        <v>14</v>
+      <c r="B112" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>27</v>
@@ -2495,8 +2503,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44763</v>
       </c>
-      <c r="B113" s="9" t="s">
-        <v>14</v>
+      <c r="B113" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>27</v>
@@ -2513,8 +2521,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44764</v>
       </c>
-      <c r="B114" s="9" t="s">
-        <v>14</v>
+      <c r="B114" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>27</v>
@@ -2531,8 +2539,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44765</v>
       </c>
-      <c r="B115" s="9" t="s">
-        <v>14</v>
+      <c r="B115" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>27</v>
@@ -2549,8 +2557,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44766</v>
       </c>
-      <c r="B116" s="9" t="s">
-        <v>14</v>
+      <c r="B116" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>27</v>
@@ -2567,8 +2575,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44767</v>
       </c>
-      <c r="B117" s="9" t="s">
-        <v>14</v>
+      <c r="B117" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>27</v>
@@ -2585,8 +2593,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44768</v>
       </c>
-      <c r="B118" s="9" t="s">
-        <v>14</v>
+      <c r="B118" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>27</v>
@@ -2603,8 +2611,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44769</v>
       </c>
-      <c r="B119" s="9" t="s">
-        <v>14</v>
+      <c r="B119" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>41</v>
@@ -2621,8 +2629,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44770</v>
       </c>
-      <c r="B120" s="9" t="s">
-        <v>14</v>
+      <c r="B120" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>27</v>
@@ -2639,8 +2647,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44771</v>
       </c>
-      <c r="B121" s="9" t="s">
-        <v>14</v>
+      <c r="B121" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>27</v>
@@ -2657,8 +2665,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44772</v>
       </c>
-      <c r="B122" s="9" t="s">
-        <v>14</v>
+      <c r="B122" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>27</v>
@@ -2675,8 +2683,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44773</v>
       </c>
-      <c r="B123" s="9" t="s">
-        <v>14</v>
+      <c r="B123" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>27</v>
@@ -2693,8 +2701,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44774</v>
       </c>
-      <c r="B124" s="9" t="s">
-        <v>14</v>
+      <c r="B124" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>27</v>
@@ -2711,8 +2719,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44775</v>
       </c>
-      <c r="B125" s="9" t="s">
-        <v>14</v>
+      <c r="B125" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>27</v>
@@ -2729,14 +2737,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44776</v>
       </c>
-      <c r="B126" s="9" t="s">
-        <v>14</v>
+      <c r="B126" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F126" s="7" t="s">
         <v>10</v>
@@ -2747,14 +2755,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44777</v>
       </c>
-      <c r="B127" s="9" t="s">
-        <v>14</v>
+      <c r="B127" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F127" s="7" t="s">
         <v>10</v>
@@ -2765,14 +2773,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44778</v>
       </c>
-      <c r="B128" s="9" t="s">
-        <v>14</v>
+      <c r="B128" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F128" s="7" t="s">
         <v>10</v>
@@ -2783,14 +2791,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44779</v>
       </c>
-      <c r="B129" s="9" t="s">
-        <v>14</v>
+      <c r="B129" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F129" s="7" t="s">
         <v>10</v>
@@ -2801,8 +2809,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44780</v>
       </c>
-      <c r="B130" s="9" t="s">
-        <v>14</v>
+      <c r="B130" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>43</v>
@@ -2819,8 +2827,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44781</v>
       </c>
-      <c r="B131" s="9" t="s">
-        <v>14</v>
+      <c r="B131" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>45</v>
@@ -2837,8 +2845,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44782</v>
       </c>
-      <c r="B132" s="9" t="s">
-        <v>14</v>
+      <c r="B132" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>45</v>
@@ -2855,8 +2863,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44783</v>
       </c>
-      <c r="B133" s="9" t="s">
-        <v>14</v>
+      <c r="B133" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>45</v>
@@ -2873,8 +2881,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44784</v>
       </c>
-      <c r="B134" s="9" t="s">
-        <v>14</v>
+      <c r="B134" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>45</v>
@@ -2891,8 +2899,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44785</v>
       </c>
-      <c r="B135" s="9" t="s">
-        <v>14</v>
+      <c r="B135" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>45</v>
@@ -2909,8 +2917,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44786</v>
       </c>
-      <c r="B136" s="9" t="s">
-        <v>14</v>
+      <c r="B136" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>24</v>
@@ -2927,8 +2935,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44787</v>
       </c>
-      <c r="B137" s="9" t="s">
-        <v>14</v>
+      <c r="B137" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>24</v>
@@ -2945,8 +2953,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44788</v>
       </c>
-      <c r="B138" s="9" t="s">
-        <v>14</v>
+      <c r="B138" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>24</v>
@@ -2963,8 +2971,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44789</v>
       </c>
-      <c r="B139" s="9" t="s">
-        <v>14</v>
+      <c r="B139" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>24</v>
@@ -2981,8 +2989,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44790</v>
       </c>
-      <c r="B140" s="9" t="s">
-        <v>14</v>
+      <c r="B140" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>24</v>
@@ -2999,8 +3007,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44791</v>
       </c>
-      <c r="B141" s="9" t="s">
-        <v>14</v>
+      <c r="B141" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>24</v>
@@ -3017,8 +3025,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44792</v>
       </c>
-      <c r="B142" s="9" t="s">
-        <v>14</v>
+      <c r="B142" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>24</v>
@@ -3035,8 +3043,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44793</v>
       </c>
-      <c r="B143" s="9" t="s">
-        <v>14</v>
+      <c r="B143" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>24</v>
@@ -3053,8 +3061,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44794</v>
       </c>
-      <c r="B144" s="9" t="s">
-        <v>14</v>
+      <c r="B144" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>47</v>
@@ -3071,8 +3079,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44795</v>
       </c>
-      <c r="B145" s="9" t="s">
-        <v>14</v>
+      <c r="B145" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>47</v>
@@ -3089,8 +3097,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44796</v>
       </c>
-      <c r="B146" s="9" t="s">
-        <v>14</v>
+      <c r="B146" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>47</v>
@@ -3107,8 +3115,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44797</v>
       </c>
-      <c r="B147" s="9" t="s">
-        <v>14</v>
+      <c r="B147" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>47</v>
@@ -3125,8 +3133,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44798</v>
       </c>
-      <c r="B148" s="9" t="s">
-        <v>14</v>
+      <c r="B148" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>47</v>
@@ -3143,8 +3151,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44799</v>
       </c>
-      <c r="B149" s="9" t="s">
-        <v>14</v>
+      <c r="B149" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>47</v>
@@ -3161,8 +3169,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44800</v>
       </c>
-      <c r="B150" s="9" t="s">
-        <v>14</v>
+      <c r="B150" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>47</v>
@@ -3179,8 +3187,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44801</v>
       </c>
-      <c r="B151" s="9" t="s">
-        <v>14</v>
+      <c r="B151" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>22</v>
@@ -3197,8 +3205,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44802</v>
       </c>
-      <c r="B152" s="9" t="s">
-        <v>14</v>
+      <c r="B152" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>22</v>
@@ -3215,8 +3223,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44803</v>
       </c>
-      <c r="B153" s="9" t="s">
-        <v>14</v>
+      <c r="B153" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>22</v>
@@ -3233,8 +3241,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44804</v>
       </c>
-      <c r="B154" s="9" t="s">
-        <v>14</v>
+      <c r="B154" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>22</v>
@@ -3251,8 +3259,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44805</v>
       </c>
-      <c r="B155" s="9" t="s">
-        <v>14</v>
+      <c r="B155" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>22</v>
@@ -3265,526 +3273,526 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="12" t="n">
+      <c r="A156" s="14" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44806</v>
       </c>
-      <c r="B156" s="13" t="s">
+      <c r="B156" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C156" s="13" t="s">
+      <c r="C156" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D156" s="13" t="s">
+      <c r="D156" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E156" s="13"/>
-      <c r="F156" s="13"/>
-      <c r="G156" s="13"/>
+      <c r="E156" s="15"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="15"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="12" t="n">
+      <c r="A157" s="14" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44807</v>
       </c>
-      <c r="B157" s="13" t="s">
+      <c r="B157" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C157" s="13" t="s">
+      <c r="C157" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D157" s="13" t="s">
+      <c r="D157" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E157" s="13"/>
-      <c r="F157" s="13"/>
-      <c r="G157" s="13"/>
+      <c r="E157" s="15"/>
+      <c r="F157" s="15"/>
+      <c r="G157" s="15"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="12" t="n">
+      <c r="A158" s="14" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44808</v>
       </c>
-      <c r="B158" s="13" t="s">
+      <c r="B158" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C158" s="13" t="s">
+      <c r="C158" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D158" s="13" t="s">
+      <c r="D158" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E158" s="13"/>
-      <c r="F158" s="13"/>
-      <c r="G158" s="13"/>
+      <c r="E158" s="15"/>
+      <c r="F158" s="15"/>
+      <c r="G158" s="15"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="12" t="n">
+      <c r="A159" s="14" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44809</v>
       </c>
-      <c r="B159" s="13" t="s">
+      <c r="B159" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C159" s="13" t="s">
+      <c r="C159" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D159" s="13" t="s">
+      <c r="D159" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E159" s="13"/>
-      <c r="F159" s="13"/>
-      <c r="G159" s="13"/>
+      <c r="E159" s="15"/>
+      <c r="F159" s="15"/>
+      <c r="G159" s="15"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="12" t="n">
+      <c r="A160" s="14" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44810</v>
       </c>
-      <c r="B160" s="13" t="s">
+      <c r="B160" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C160" s="13" t="s">
+      <c r="C160" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D160" s="13" t="s">
+      <c r="D160" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E160" s="13"/>
-      <c r="F160" s="13"/>
-      <c r="G160" s="13"/>
+      <c r="E160" s="15"/>
+      <c r="F160" s="15"/>
+      <c r="G160" s="15"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="12" t="n">
+      <c r="A161" s="14" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44811</v>
       </c>
-      <c r="B161" s="13" t="s">
+      <c r="B161" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C161" s="13" t="s">
+      <c r="C161" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D161" s="13" t="s">
+      <c r="D161" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E161" s="13"/>
-      <c r="F161" s="13"/>
-      <c r="G161" s="13"/>
+      <c r="E161" s="15"/>
+      <c r="F161" s="15"/>
+      <c r="G161" s="15"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="12" t="n">
+      <c r="A162" s="14" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44812</v>
       </c>
-      <c r="B162" s="13" t="s">
+      <c r="B162" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C162" s="13" t="s">
+      <c r="C162" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D162" s="13" t="s">
+      <c r="D162" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E162" s="13"/>
-      <c r="F162" s="13"/>
-      <c r="G162" s="13"/>
+      <c r="E162" s="15"/>
+      <c r="F162" s="15"/>
+      <c r="G162" s="15"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="12" t="n">
+      <c r="A163" s="14" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44813</v>
       </c>
-      <c r="B163" s="13" t="s">
+      <c r="B163" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C163" s="13" t="s">
+      <c r="C163" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D163" s="13" t="s">
+      <c r="D163" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E163" s="13"/>
-      <c r="F163" s="13"/>
-      <c r="G163" s="13"/>
+      <c r="E163" s="15"/>
+      <c r="F163" s="15"/>
+      <c r="G163" s="15"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="12" t="n">
+      <c r="A164" s="14" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44814</v>
       </c>
-      <c r="B164" s="13" t="s">
+      <c r="B164" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C164" s="13" t="s">
+      <c r="C164" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D164" s="13" t="s">
+      <c r="D164" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E164" s="13"/>
-      <c r="F164" s="13"/>
-      <c r="G164" s="13"/>
+      <c r="E164" s="15"/>
+      <c r="F164" s="15"/>
+      <c r="G164" s="15"/>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="12" t="n">
+      <c r="A165" s="14" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44815</v>
       </c>
-      <c r="B165" s="13" t="s">
+      <c r="B165" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C165" s="13" t="s">
+      <c r="C165" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D165" s="13" t="s">
+      <c r="D165" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E165" s="13"/>
-      <c r="F165" s="13"/>
-      <c r="G165" s="13"/>
+      <c r="E165" s="15"/>
+      <c r="F165" s="15"/>
+      <c r="G165" s="15"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="12" t="n">
+      <c r="A166" s="14" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44816</v>
       </c>
-      <c r="B166" s="13" t="s">
+      <c r="B166" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C166" s="13" t="s">
+      <c r="C166" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D166" s="13" t="s">
+      <c r="D166" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E166" s="13"/>
-      <c r="F166" s="13"/>
-      <c r="G166" s="13"/>
+      <c r="E166" s="15"/>
+      <c r="F166" s="15"/>
+      <c r="G166" s="15"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="12" t="n">
+      <c r="A167" s="14" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44817</v>
       </c>
-      <c r="B167" s="13" t="s">
+      <c r="B167" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C167" s="13" t="s">
+      <c r="C167" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D167" s="13" t="s">
+      <c r="D167" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E167" s="13"/>
-      <c r="F167" s="13"/>
-      <c r="G167" s="13"/>
+      <c r="E167" s="15"/>
+      <c r="F167" s="15"/>
+      <c r="G167" s="15"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="12" t="n">
+      <c r="A168" s="14" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44818</v>
       </c>
-      <c r="B168" s="13" t="s">
+      <c r="B168" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C168" s="13" t="s">
+      <c r="C168" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D168" s="13" t="s">
+      <c r="D168" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E168" s="13"/>
-      <c r="F168" s="13"/>
-      <c r="G168" s="13"/>
+      <c r="E168" s="15"/>
+      <c r="F168" s="15"/>
+      <c r="G168" s="15"/>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="12" t="n">
+      <c r="A169" s="14" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44819</v>
       </c>
-      <c r="B169" s="13" t="s">
+      <c r="B169" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C169" s="13" t="s">
+      <c r="C169" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D169" s="13" t="s">
+      <c r="D169" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E169" s="13"/>
-      <c r="F169" s="13"/>
-      <c r="G169" s="13"/>
+      <c r="E169" s="15"/>
+      <c r="F169" s="15"/>
+      <c r="G169" s="15"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="12" t="n">
+      <c r="A170" s="14" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44820</v>
       </c>
-      <c r="B170" s="13" t="s">
+      <c r="B170" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C170" s="13" t="s">
+      <c r="C170" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D170" s="13" t="s">
+      <c r="D170" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E170" s="13"/>
-      <c r="F170" s="13"/>
-      <c r="G170" s="13"/>
+      <c r="E170" s="15"/>
+      <c r="F170" s="15"/>
+      <c r="G170" s="15"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="12" t="n">
+      <c r="A171" s="14" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44821</v>
       </c>
-      <c r="B171" s="13" t="s">
+      <c r="B171" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C171" s="13" t="s">
+      <c r="C171" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D171" s="13" t="s">
+      <c r="D171" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E171" s="13"/>
-      <c r="F171" s="13"/>
-      <c r="G171" s="13"/>
+      <c r="E171" s="15"/>
+      <c r="F171" s="15"/>
+      <c r="G171" s="15"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="12" t="n">
+      <c r="A172" s="14" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44822</v>
       </c>
-      <c r="B172" s="13" t="s">
+      <c r="B172" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C172" s="13" t="s">
+      <c r="C172" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D172" s="13" t="s">
+      <c r="D172" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E172" s="13"/>
-      <c r="F172" s="13"/>
-      <c r="G172" s="13"/>
+      <c r="E172" s="15"/>
+      <c r="F172" s="15"/>
+      <c r="G172" s="15"/>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="12" t="n">
+      <c r="A173" s="14" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44823</v>
       </c>
-      <c r="B173" s="13" t="s">
+      <c r="B173" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C173" s="13" t="s">
+      <c r="C173" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D173" s="13" t="s">
+      <c r="D173" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E173" s="13"/>
-      <c r="F173" s="13"/>
-      <c r="G173" s="13"/>
+      <c r="E173" s="15"/>
+      <c r="F173" s="15"/>
+      <c r="G173" s="15"/>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="12" t="n">
+      <c r="A174" s="14" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44824</v>
       </c>
-      <c r="B174" s="13" t="s">
+      <c r="B174" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C174" s="13" t="s">
+      <c r="C174" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D174" s="13" t="s">
+      <c r="D174" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E174" s="13"/>
-      <c r="F174" s="13"/>
-      <c r="G174" s="13"/>
+      <c r="E174" s="15"/>
+      <c r="F174" s="15"/>
+      <c r="G174" s="15"/>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="12" t="n">
+      <c r="A175" s="14" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44825</v>
       </c>
-      <c r="B175" s="13" t="s">
+      <c r="B175" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C175" s="13" t="s">
+      <c r="C175" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D175" s="13" t="s">
+      <c r="D175" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E175" s="13"/>
-      <c r="F175" s="13"/>
-      <c r="G175" s="13"/>
+      <c r="E175" s="15"/>
+      <c r="F175" s="15"/>
+      <c r="G175" s="15"/>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="12" t="n">
+      <c r="A176" s="14" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44826</v>
       </c>
-      <c r="B176" s="13" t="s">
+      <c r="B176" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C176" s="13" t="s">
+      <c r="C176" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D176" s="13" t="s">
+      <c r="D176" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E176" s="13"/>
-      <c r="F176" s="13"/>
-      <c r="G176" s="13"/>
+      <c r="E176" s="15"/>
+      <c r="F176" s="15"/>
+      <c r="G176" s="15"/>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="12" t="n">
+      <c r="A177" s="14" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44827</v>
       </c>
-      <c r="B177" s="13" t="s">
+      <c r="B177" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C177" s="13" t="s">
+      <c r="C177" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D177" s="13" t="s">
+      <c r="D177" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E177" s="13"/>
-      <c r="F177" s="13"/>
-      <c r="G177" s="13"/>
+      <c r="E177" s="15"/>
+      <c r="F177" s="15"/>
+      <c r="G177" s="15"/>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="12" t="n">
+      <c r="A178" s="14" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44828</v>
       </c>
-      <c r="B178" s="13" t="s">
+      <c r="B178" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C178" s="13" t="s">
+      <c r="C178" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D178" s="13" t="s">
+      <c r="D178" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E178" s="13"/>
-      <c r="F178" s="13"/>
-      <c r="G178" s="13"/>
+      <c r="E178" s="15"/>
+      <c r="F178" s="15"/>
+      <c r="G178" s="15"/>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="12" t="n">
+      <c r="A179" s="14" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44829</v>
       </c>
-      <c r="B179" s="13" t="s">
+      <c r="B179" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C179" s="13" t="s">
+      <c r="C179" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D179" s="13" t="s">
+      <c r="D179" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E179" s="13"/>
-      <c r="F179" s="13"/>
-      <c r="G179" s="13"/>
+      <c r="E179" s="15"/>
+      <c r="F179" s="15"/>
+      <c r="G179" s="15"/>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="12" t="n">
+      <c r="A180" s="14" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44830</v>
       </c>
-      <c r="B180" s="13" t="s">
+      <c r="B180" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C180" s="13" t="s">
+      <c r="C180" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D180" s="13" t="s">
+      <c r="D180" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E180" s="13"/>
-      <c r="F180" s="13"/>
-      <c r="G180" s="13"/>
+      <c r="E180" s="15"/>
+      <c r="F180" s="15"/>
+      <c r="G180" s="15"/>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="12" t="n">
+      <c r="A181" s="14" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44831</v>
       </c>
-      <c r="B181" s="13" t="s">
+      <c r="B181" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C181" s="13" t="s">
+      <c r="C181" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D181" s="13" t="s">
+      <c r="D181" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E181" s="13"/>
-      <c r="F181" s="13"/>
-      <c r="G181" s="13"/>
+      <c r="E181" s="15"/>
+      <c r="F181" s="15"/>
+      <c r="G181" s="15"/>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="12" t="n">
+      <c r="A182" s="14" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44832</v>
       </c>
-      <c r="B182" s="13" t="s">
+      <c r="B182" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C182" s="13" t="s">
+      <c r="C182" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D182" s="13" t="s">
+      <c r="D182" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E182" s="13"/>
-      <c r="F182" s="13"/>
-      <c r="G182" s="13"/>
+      <c r="E182" s="15"/>
+      <c r="F182" s="15"/>
+      <c r="G182" s="15"/>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="12" t="n">
+      <c r="A183" s="14" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44833</v>
       </c>
-      <c r="B183" s="13" t="s">
+      <c r="B183" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C183" s="13" t="s">
+      <c r="C183" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D183" s="13" t="s">
+      <c r="D183" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E183" s="13"/>
-      <c r="F183" s="13"/>
-      <c r="G183" s="13"/>
+      <c r="E183" s="15"/>
+      <c r="F183" s="15"/>
+      <c r="G183" s="15"/>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="12" t="n">
+      <c r="A184" s="14" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44834</v>
       </c>
-      <c r="B184" s="13" t="s">
+      <c r="B184" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C184" s="13" t="s">
+      <c r="C184" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D184" s="13" t="s">
+      <c r="D184" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E184" s="13"/>
-      <c r="F184" s="13"/>
-      <c r="G184" s="13"/>
+      <c r="E184" s="15"/>
+      <c r="F184" s="15"/>
+      <c r="G184" s="15"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/scripts/ESO-2.2m/schedules/P111/schedule-ESO-2.2m-P111.xlsx
+++ b/scripts/ESO-2.2m/schedules/P111/schedule-ESO-2.2m-P111.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="50">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -140,9 +140,6 @@
   </si>
   <si>
     <t xml:space="preserve">Maren, Angela</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Ramírez Tannus, Zari, Suppo</t>
@@ -306,7 +303,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -349,10 +346,6 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -451,9 +444,9 @@
   <dimension ref="A1:G184"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="C111" activeCellId="0" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -775,7 +768,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44667</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -793,7 +786,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44668</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -811,7 +804,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44669</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -829,7 +822,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44670</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -847,7 +840,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44671</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -865,7 +858,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44672</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -883,7 +876,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44673</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -901,7 +894,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44674</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -919,7 +912,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44675</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -937,7 +930,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44676</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -955,7 +948,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44677</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -973,7 +966,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44678</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -991,7 +984,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44679</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -1009,7 +1002,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44680</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -1027,7 +1020,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44681</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -1045,7 +1038,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44682</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -1063,7 +1056,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44683</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -1081,7 +1074,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44684</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -1099,7 +1092,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44685</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -1117,7 +1110,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44686</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -1135,7 +1128,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44687</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -1153,7 +1146,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44688</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -1171,10 +1164,10 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44689</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="11" t="s">
+      <c r="B39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -1189,10 +1182,10 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44690</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="11" t="s">
+      <c r="B40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -1207,10 +1200,10 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44691</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="11" t="s">
+      <c r="B41" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -1225,10 +1218,10 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44692</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="11" t="s">
+      <c r="B42" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -1243,7 +1236,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44693</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -1261,10 +1254,10 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44694</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="11" t="s">
+      <c r="B44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -1279,10 +1272,10 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44695</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="11" t="s">
+      <c r="B45" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -1297,10 +1290,10 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44696</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="11" t="s">
+      <c r="B46" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -1315,10 +1308,10 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44697</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="11" t="s">
+      <c r="B47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -1333,7 +1326,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44698</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -1351,7 +1344,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44699</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -1369,7 +1362,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44700</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -1387,7 +1380,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44701</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -1405,7 +1398,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44702</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -1423,7 +1416,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44703</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -1441,7 +1434,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44704</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -1459,7 +1452,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44705</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -1477,7 +1470,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44706</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -1495,7 +1488,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44707</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -1513,7 +1506,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44708</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -1531,7 +1524,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44709</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -1549,7 +1542,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44710</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -1567,7 +1560,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44711</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -1585,7 +1578,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44712</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -1603,7 +1596,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44713</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -1621,7 +1614,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44714</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -1639,7 +1632,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44715</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -1847,7 +1840,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44726</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -1865,10 +1858,10 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44727</v>
       </c>
-      <c r="B77" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" s="11" t="s">
+      <c r="B77" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
@@ -1883,10 +1876,10 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44728</v>
       </c>
-      <c r="B78" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" s="11" t="s">
+      <c r="B78" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -1901,10 +1894,10 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44729</v>
       </c>
-      <c r="B79" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" s="11" t="s">
+      <c r="B79" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
@@ -1919,10 +1912,10 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44730</v>
       </c>
-      <c r="B80" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" s="11" t="s">
+      <c r="B80" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D80" s="2" t="s">
@@ -1933,171 +1926,171 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="12" t="n">
+      <c r="A81" s="11" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44731</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13" t="s">
+      <c r="C81" s="12"/>
+      <c r="D81" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E81" s="13"/>
+      <c r="E81" s="12"/>
       <c r="F81" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="12" t="n">
+      <c r="A82" s="11" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44732</v>
       </c>
-      <c r="B82" s="13" t="s">
+      <c r="B82" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13" t="s">
+      <c r="C82" s="12"/>
+      <c r="D82" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E82" s="13"/>
+      <c r="E82" s="12"/>
       <c r="F82" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="12" t="n">
+      <c r="A83" s="11" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44733</v>
       </c>
-      <c r="B83" s="13" t="s">
+      <c r="B83" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13" t="s">
+      <c r="C83" s="12"/>
+      <c r="D83" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E83" s="13"/>
+      <c r="E83" s="12"/>
       <c r="F83" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="12" t="n">
+      <c r="A84" s="11" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44734</v>
       </c>
-      <c r="B84" s="13" t="s">
+      <c r="B84" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13" t="s">
+      <c r="C84" s="12"/>
+      <c r="D84" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E84" s="13"/>
+      <c r="E84" s="12"/>
       <c r="F84" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="12" t="n">
+      <c r="A85" s="11" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44735</v>
       </c>
-      <c r="B85" s="13" t="s">
+      <c r="B85" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13" t="s">
+      <c r="C85" s="12"/>
+      <c r="D85" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E85" s="13"/>
+      <c r="E85" s="12"/>
       <c r="F85" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="12" t="n">
+      <c r="A86" s="11" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44736</v>
       </c>
-      <c r="B86" s="13" t="s">
+      <c r="B86" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13" t="s">
+      <c r="C86" s="12"/>
+      <c r="D86" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E86" s="13"/>
+      <c r="E86" s="12"/>
       <c r="F86" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="12" t="n">
+      <c r="A87" s="11" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44737</v>
       </c>
-      <c r="B87" s="13" t="s">
+      <c r="B87" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13" t="s">
+      <c r="C87" s="12"/>
+      <c r="D87" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E87" s="13"/>
+      <c r="E87" s="12"/>
       <c r="F87" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="12" t="n">
+      <c r="A88" s="11" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44738</v>
       </c>
-      <c r="B88" s="13" t="s">
+      <c r="B88" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13" t="s">
+      <c r="C88" s="12"/>
+      <c r="D88" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E88" s="13"/>
+      <c r="E88" s="12"/>
       <c r="F88" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="12" t="n">
+      <c r="A89" s="11" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44739</v>
       </c>
-      <c r="B89" s="13" t="s">
+      <c r="B89" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13" t="s">
+      <c r="C89" s="12"/>
+      <c r="D89" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E89" s="13"/>
+      <c r="E89" s="12"/>
       <c r="F89" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="12" t="n">
+      <c r="A90" s="11" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44740</v>
       </c>
-      <c r="B90" s="13" t="s">
+      <c r="B90" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13" t="s">
+      <c r="C90" s="12"/>
+      <c r="D90" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E90" s="13"/>
+      <c r="E90" s="12"/>
       <c r="F90" s="7" t="s">
         <v>10</v>
       </c>
@@ -2125,7 +2118,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44742</v>
       </c>
-      <c r="B92" s="11" t="s">
+      <c r="B92" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C92" s="2" t="s">
@@ -2143,7 +2136,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44743</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="B93" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -2161,7 +2154,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44744</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="B94" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C94" s="2" t="s">
@@ -2179,7 +2172,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44745</v>
       </c>
-      <c r="B95" s="11" t="s">
+      <c r="B95" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -2197,7 +2190,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44746</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="B96" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C96" s="2" t="s">
@@ -2215,7 +2208,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44747</v>
       </c>
-      <c r="B97" s="11" t="s">
+      <c r="B97" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -2233,7 +2226,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44748</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="B98" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -2251,7 +2244,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44749</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="B99" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C99" s="2" t="s">
@@ -2269,7 +2262,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44750</v>
       </c>
-      <c r="B100" s="11" t="s">
+      <c r="B100" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -2287,7 +2280,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44751</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="B101" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -2305,7 +2298,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44752</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B102" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C102" s="2" t="s">
@@ -2323,7 +2316,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44753</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="B103" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C103" s="2" t="s">
@@ -2341,7 +2334,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44754</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="B104" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C104" s="2" t="s">
@@ -2359,7 +2352,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44755</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="B105" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C105" s="2" t="s">
@@ -2377,7 +2370,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44756</v>
       </c>
-      <c r="B106" s="11" t="s">
+      <c r="B106" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C106" s="2" t="s">
@@ -2395,7 +2388,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44757</v>
       </c>
-      <c r="B107" s="11" t="s">
+      <c r="B107" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C107" s="2" t="s">
@@ -2413,7 +2406,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44758</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="B108" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C108" s="2" t="s">
@@ -2431,7 +2424,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44759</v>
       </c>
-      <c r="B109" s="11" t="s">
+      <c r="B109" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C109" s="2" t="s">
@@ -2449,11 +2442,11 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44760</v>
       </c>
-      <c r="B110" s="11" t="s">
+      <c r="B110" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>39</v>
@@ -2467,7 +2460,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44761</v>
       </c>
-      <c r="B111" s="11" t="s">
+      <c r="B111" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C111" s="2" t="s">
@@ -2485,7 +2478,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44762</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="B112" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C112" s="2" t="s">
@@ -2503,7 +2496,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44763</v>
       </c>
-      <c r="B113" s="11" t="s">
+      <c r="B113" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C113" s="2" t="s">
@@ -2521,7 +2514,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44764</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="B114" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C114" s="2" t="s">
@@ -2539,7 +2532,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44765</v>
       </c>
-      <c r="B115" s="11" t="s">
+      <c r="B115" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C115" s="2" t="s">
@@ -2557,7 +2550,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44766</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="B116" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C116" s="2" t="s">
@@ -2575,7 +2568,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44767</v>
       </c>
-      <c r="B117" s="11" t="s">
+      <c r="B117" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C117" s="2" t="s">
@@ -2593,7 +2586,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44768</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="B118" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C118" s="2" t="s">
@@ -2611,11 +2604,11 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44769</v>
       </c>
-      <c r="B119" s="11" t="s">
+      <c r="B119" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>30</v>
@@ -2629,7 +2622,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44770</v>
       </c>
-      <c r="B120" s="11" t="s">
+      <c r="B120" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C120" s="2" t="s">
@@ -2647,7 +2640,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44771</v>
       </c>
-      <c r="B121" s="11" t="s">
+      <c r="B121" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C121" s="2" t="s">
@@ -2665,7 +2658,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44772</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="B122" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C122" s="2" t="s">
@@ -2683,14 +2676,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44773</v>
       </c>
-      <c r="B123" s="11" t="s">
+      <c r="B123" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F123" s="7" t="s">
         <v>10</v>
@@ -2701,14 +2694,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44774</v>
       </c>
-      <c r="B124" s="11" t="s">
+      <c r="B124" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F124" s="7" t="s">
         <v>10</v>
@@ -2719,14 +2712,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44775</v>
       </c>
-      <c r="B125" s="11" t="s">
+      <c r="B125" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F125" s="7" t="s">
         <v>10</v>
@@ -2737,11 +2730,11 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44776</v>
       </c>
-      <c r="B126" s="11" t="s">
+      <c r="B126" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>14</v>
@@ -2755,11 +2748,11 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44777</v>
       </c>
-      <c r="B127" s="11" t="s">
+      <c r="B127" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>14</v>
@@ -2773,11 +2766,11 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44778</v>
       </c>
-      <c r="B128" s="11" t="s">
+      <c r="B128" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>14</v>
@@ -2791,11 +2784,11 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44779</v>
       </c>
-      <c r="B129" s="11" t="s">
+      <c r="B129" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>14</v>
@@ -2809,14 +2802,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44780</v>
       </c>
-      <c r="B130" s="11" t="s">
+      <c r="B130" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C130" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F130" s="7" t="s">
         <v>10</v>
@@ -2827,14 +2820,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44781</v>
       </c>
-      <c r="B131" s="11" t="s">
+      <c r="B131" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F131" s="7" t="s">
         <v>10</v>
@@ -2845,14 +2838,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44782</v>
       </c>
-      <c r="B132" s="11" t="s">
+      <c r="B132" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F132" s="7" t="s">
         <v>10</v>
@@ -2863,11 +2856,11 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44783</v>
       </c>
-      <c r="B133" s="11" t="s">
+      <c r="B133" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>17</v>
@@ -2881,11 +2874,11 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44784</v>
       </c>
-      <c r="B134" s="11" t="s">
+      <c r="B134" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>17</v>
@@ -2899,11 +2892,11 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44785</v>
       </c>
-      <c r="B135" s="11" t="s">
+      <c r="B135" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>17</v>
@@ -2917,7 +2910,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44786</v>
       </c>
-      <c r="B136" s="11" t="s">
+      <c r="B136" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C136" s="2" t="s">
@@ -2935,14 +2928,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44787</v>
       </c>
-      <c r="B137" s="11" t="s">
+      <c r="B137" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F137" s="7" t="s">
         <v>10</v>
@@ -2953,14 +2946,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44788</v>
       </c>
-      <c r="B138" s="11" t="s">
+      <c r="B138" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F138" s="7" t="s">
         <v>10</v>
@@ -2971,14 +2964,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44789</v>
       </c>
-      <c r="B139" s="11" t="s">
+      <c r="B139" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F139" s="7" t="s">
         <v>10</v>
@@ -2989,7 +2982,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44790</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B140" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C140" s="2" t="s">
@@ -3007,7 +3000,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44791</v>
       </c>
-      <c r="B141" s="11" t="s">
+      <c r="B141" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C141" s="2" t="s">
@@ -3025,7 +3018,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44792</v>
       </c>
-      <c r="B142" s="11" t="s">
+      <c r="B142" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C142" s="2" t="s">
@@ -3043,7 +3036,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44793</v>
       </c>
-      <c r="B143" s="11" t="s">
+      <c r="B143" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C143" s="2" t="s">
@@ -3061,11 +3054,11 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44794</v>
       </c>
-      <c r="B144" s="11" t="s">
+      <c r="B144" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>32</v>
@@ -3079,11 +3072,11 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44795</v>
       </c>
-      <c r="B145" s="11" t="s">
+      <c r="B145" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>32</v>
@@ -3097,11 +3090,11 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44796</v>
       </c>
-      <c r="B146" s="11" t="s">
+      <c r="B146" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>32</v>
@@ -3115,11 +3108,11 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44797</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="B147" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>30</v>
@@ -3133,11 +3126,11 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44798</v>
       </c>
-      <c r="B148" s="11" t="s">
+      <c r="B148" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>30</v>
@@ -3151,11 +3144,11 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44799</v>
       </c>
-      <c r="B149" s="11" t="s">
+      <c r="B149" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>30</v>
@@ -3169,11 +3162,11 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44800</v>
       </c>
-      <c r="B150" s="11" t="s">
+      <c r="B150" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>30</v>
@@ -3187,14 +3180,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44801</v>
       </c>
-      <c r="B151" s="11" t="s">
+      <c r="B151" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F151" s="7" t="s">
         <v>10</v>
@@ -3205,14 +3198,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44802</v>
       </c>
-      <c r="B152" s="11" t="s">
+      <c r="B152" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F152" s="7" t="s">
         <v>10</v>
@@ -3223,14 +3216,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44803</v>
       </c>
-      <c r="B153" s="11" t="s">
+      <c r="B153" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F153" s="7" t="s">
         <v>10</v>
@@ -3241,7 +3234,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44804</v>
       </c>
-      <c r="B154" s="11" t="s">
+      <c r="B154" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C154" s="2" t="s">
@@ -3259,7 +3252,7 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44805</v>
       </c>
-      <c r="B155" s="11" t="s">
+      <c r="B155" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C155" s="2" t="s">
@@ -3273,526 +3266,526 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="14" t="n">
+      <c r="A156" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44806</v>
       </c>
-      <c r="B156" s="15" t="s">
+      <c r="B156" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C156" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C156" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D156" s="15" t="s">
+      <c r="D156" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E156" s="15"/>
-      <c r="F156" s="15"/>
-      <c r="G156" s="15"/>
+      <c r="E156" s="14"/>
+      <c r="F156" s="14"/>
+      <c r="G156" s="14"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="14" t="n">
+      <c r="A157" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44807</v>
       </c>
-      <c r="B157" s="15" t="s">
+      <c r="B157" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C157" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C157" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D157" s="15" t="s">
+      <c r="D157" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E157" s="15"/>
-      <c r="F157" s="15"/>
-      <c r="G157" s="15"/>
+      <c r="E157" s="14"/>
+      <c r="F157" s="14"/>
+      <c r="G157" s="14"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="14" t="n">
+      <c r="A158" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44808</v>
       </c>
-      <c r="B158" s="15" t="s">
+      <c r="B158" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C158" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C158" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D158" s="15" t="s">
+      <c r="D158" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E158" s="15"/>
-      <c r="F158" s="15"/>
-      <c r="G158" s="15"/>
+      <c r="E158" s="14"/>
+      <c r="F158" s="14"/>
+      <c r="G158" s="14"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="14" t="n">
+      <c r="A159" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44809</v>
       </c>
-      <c r="B159" s="15" t="s">
+      <c r="B159" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C159" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C159" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D159" s="15" t="s">
+      <c r="D159" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E159" s="15"/>
-      <c r="F159" s="15"/>
-      <c r="G159" s="15"/>
+      <c r="E159" s="14"/>
+      <c r="F159" s="14"/>
+      <c r="G159" s="14"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="14" t="n">
+      <c r="A160" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44810</v>
       </c>
-      <c r="B160" s="15" t="s">
+      <c r="B160" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C160" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C160" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D160" s="15" t="s">
+      <c r="D160" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E160" s="15"/>
-      <c r="F160" s="15"/>
-      <c r="G160" s="15"/>
+      <c r="E160" s="14"/>
+      <c r="F160" s="14"/>
+      <c r="G160" s="14"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="14" t="n">
+      <c r="A161" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44811</v>
       </c>
-      <c r="B161" s="15" t="s">
+      <c r="B161" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C161" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C161" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D161" s="15" t="s">
+      <c r="D161" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E161" s="15"/>
-      <c r="F161" s="15"/>
-      <c r="G161" s="15"/>
+      <c r="E161" s="14"/>
+      <c r="F161" s="14"/>
+      <c r="G161" s="14"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="14" t="n">
+      <c r="A162" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44812</v>
       </c>
-      <c r="B162" s="15" t="s">
+      <c r="B162" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C162" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C162" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D162" s="15" t="s">
+      <c r="D162" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E162" s="15"/>
-      <c r="F162" s="15"/>
-      <c r="G162" s="15"/>
+      <c r="E162" s="14"/>
+      <c r="F162" s="14"/>
+      <c r="G162" s="14"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="14" t="n">
+      <c r="A163" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44813</v>
       </c>
-      <c r="B163" s="15" t="s">
+      <c r="B163" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C163" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C163" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D163" s="15" t="s">
+      <c r="D163" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E163" s="15"/>
-      <c r="F163" s="15"/>
-      <c r="G163" s="15"/>
+      <c r="E163" s="14"/>
+      <c r="F163" s="14"/>
+      <c r="G163" s="14"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="14" t="n">
+      <c r="A164" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44814</v>
       </c>
-      <c r="B164" s="15" t="s">
+      <c r="B164" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C164" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C164" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D164" s="15" t="s">
+      <c r="D164" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E164" s="15"/>
-      <c r="F164" s="15"/>
-      <c r="G164" s="15"/>
+      <c r="E164" s="14"/>
+      <c r="F164" s="14"/>
+      <c r="G164" s="14"/>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="14" t="n">
+      <c r="A165" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44815</v>
       </c>
-      <c r="B165" s="15" t="s">
+      <c r="B165" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C165" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C165" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D165" s="15" t="s">
+      <c r="D165" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E165" s="15"/>
-      <c r="F165" s="15"/>
-      <c r="G165" s="15"/>
+      <c r="E165" s="14"/>
+      <c r="F165" s="14"/>
+      <c r="G165" s="14"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="14" t="n">
+      <c r="A166" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44816</v>
       </c>
-      <c r="B166" s="15" t="s">
+      <c r="B166" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C166" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C166" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D166" s="15" t="s">
+      <c r="D166" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E166" s="15"/>
-      <c r="F166" s="15"/>
-      <c r="G166" s="15"/>
+      <c r="E166" s="14"/>
+      <c r="F166" s="14"/>
+      <c r="G166" s="14"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="14" t="n">
+      <c r="A167" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44817</v>
       </c>
-      <c r="B167" s="15" t="s">
+      <c r="B167" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C167" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C167" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D167" s="15" t="s">
+      <c r="D167" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E167" s="15"/>
-      <c r="F167" s="15"/>
-      <c r="G167" s="15"/>
+      <c r="E167" s="14"/>
+      <c r="F167" s="14"/>
+      <c r="G167" s="14"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="14" t="n">
+      <c r="A168" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44818</v>
       </c>
-      <c r="B168" s="15" t="s">
+      <c r="B168" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C168" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C168" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D168" s="15" t="s">
+      <c r="D168" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E168" s="15"/>
-      <c r="F168" s="15"/>
-      <c r="G168" s="15"/>
+      <c r="E168" s="14"/>
+      <c r="F168" s="14"/>
+      <c r="G168" s="14"/>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="14" t="n">
+      <c r="A169" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44819</v>
       </c>
-      <c r="B169" s="15" t="s">
+      <c r="B169" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C169" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C169" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D169" s="15" t="s">
+      <c r="D169" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E169" s="15"/>
-      <c r="F169" s="15"/>
-      <c r="G169" s="15"/>
+      <c r="E169" s="14"/>
+      <c r="F169" s="14"/>
+      <c r="G169" s="14"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="14" t="n">
+      <c r="A170" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44820</v>
       </c>
-      <c r="B170" s="15" t="s">
+      <c r="B170" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C170" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C170" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D170" s="15" t="s">
+      <c r="D170" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E170" s="15"/>
-      <c r="F170" s="15"/>
-      <c r="G170" s="15"/>
+      <c r="E170" s="14"/>
+      <c r="F170" s="14"/>
+      <c r="G170" s="14"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="14" t="n">
+      <c r="A171" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44821</v>
       </c>
-      <c r="B171" s="15" t="s">
+      <c r="B171" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C171" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C171" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D171" s="15" t="s">
+      <c r="D171" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E171" s="15"/>
-      <c r="F171" s="15"/>
-      <c r="G171" s="15"/>
+      <c r="E171" s="14"/>
+      <c r="F171" s="14"/>
+      <c r="G171" s="14"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="14" t="n">
+      <c r="A172" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44822</v>
       </c>
-      <c r="B172" s="15" t="s">
+      <c r="B172" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C172" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C172" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D172" s="15" t="s">
+      <c r="D172" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E172" s="14"/>
+      <c r="F172" s="14"/>
+      <c r="G172" s="14"/>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="13" t="n">
+        <f aca="false">(ROW()-ROW(A$2))+A$2</f>
+        <v>44823</v>
+      </c>
+      <c r="B173" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E172" s="15"/>
-      <c r="F172" s="15"/>
-      <c r="G172" s="15"/>
-    </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="14" t="n">
-        <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44823</v>
-      </c>
-      <c r="B173" s="15" t="s">
+      <c r="C173" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C173" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D173" s="15" t="s">
+      <c r="D173" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E173" s="14"/>
+      <c r="F173" s="14"/>
+      <c r="G173" s="14"/>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="13" t="n">
+        <f aca="false">(ROW()-ROW(A$2))+A$2</f>
+        <v>44824</v>
+      </c>
+      <c r="B174" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E173" s="15"/>
-      <c r="F173" s="15"/>
-      <c r="G173" s="15"/>
-    </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="14" t="n">
-        <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44824</v>
-      </c>
-      <c r="B174" s="15" t="s">
+      <c r="C174" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C174" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D174" s="15" t="s">
+      <c r="D174" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E174" s="14"/>
+      <c r="F174" s="14"/>
+      <c r="G174" s="14"/>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="13" t="n">
+        <f aca="false">(ROW()-ROW(A$2))+A$2</f>
+        <v>44825</v>
+      </c>
+      <c r="B175" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E174" s="15"/>
-      <c r="F174" s="15"/>
-      <c r="G174" s="15"/>
-    </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="14" t="n">
-        <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44825</v>
-      </c>
-      <c r="B175" s="15" t="s">
+      <c r="C175" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C175" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D175" s="15" t="s">
+      <c r="D175" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E175" s="15"/>
-      <c r="F175" s="15"/>
-      <c r="G175" s="15"/>
+      <c r="E175" s="14"/>
+      <c r="F175" s="14"/>
+      <c r="G175" s="14"/>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="14" t="n">
+      <c r="A176" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44826</v>
       </c>
-      <c r="B176" s="15" t="s">
+      <c r="B176" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C176" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C176" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D176" s="15" t="s">
+      <c r="D176" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E176" s="15"/>
-      <c r="F176" s="15"/>
-      <c r="G176" s="15"/>
+      <c r="E176" s="14"/>
+      <c r="F176" s="14"/>
+      <c r="G176" s="14"/>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="14" t="n">
+      <c r="A177" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44827</v>
       </c>
-      <c r="B177" s="15" t="s">
+      <c r="B177" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C177" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C177" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D177" s="15" t="s">
+      <c r="D177" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E177" s="15"/>
-      <c r="F177" s="15"/>
-      <c r="G177" s="15"/>
+      <c r="E177" s="14"/>
+      <c r="F177" s="14"/>
+      <c r="G177" s="14"/>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="14" t="n">
+      <c r="A178" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44828</v>
       </c>
-      <c r="B178" s="15" t="s">
+      <c r="B178" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C178" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C178" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D178" s="15" t="s">
+      <c r="D178" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E178" s="15"/>
-      <c r="F178" s="15"/>
-      <c r="G178" s="15"/>
+      <c r="E178" s="14"/>
+      <c r="F178" s="14"/>
+      <c r="G178" s="14"/>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="14" t="n">
+      <c r="A179" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44829</v>
       </c>
-      <c r="B179" s="15" t="s">
+      <c r="B179" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C179" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C179" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D179" s="15" t="s">
+      <c r="D179" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E179" s="14"/>
+      <c r="F179" s="14"/>
+      <c r="G179" s="14"/>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="13" t="n">
+        <f aca="false">(ROW()-ROW(A$2))+A$2</f>
+        <v>44830</v>
+      </c>
+      <c r="B180" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E179" s="15"/>
-      <c r="F179" s="15"/>
-      <c r="G179" s="15"/>
-    </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="14" t="n">
-        <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44830</v>
-      </c>
-      <c r="B180" s="15" t="s">
+      <c r="C180" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C180" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D180" s="15" t="s">
+      <c r="D180" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E180" s="14"/>
+      <c r="F180" s="14"/>
+      <c r="G180" s="14"/>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="13" t="n">
+        <f aca="false">(ROW()-ROW(A$2))+A$2</f>
+        <v>44831</v>
+      </c>
+      <c r="B181" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E180" s="15"/>
-      <c r="F180" s="15"/>
-      <c r="G180" s="15"/>
-    </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="14" t="n">
-        <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44831</v>
-      </c>
-      <c r="B181" s="15" t="s">
+      <c r="C181" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C181" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D181" s="15" t="s">
+      <c r="D181" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E181" s="14"/>
+      <c r="F181" s="14"/>
+      <c r="G181" s="14"/>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="13" t="n">
+        <f aca="false">(ROW()-ROW(A$2))+A$2</f>
+        <v>44832</v>
+      </c>
+      <c r="B182" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E181" s="15"/>
-      <c r="F181" s="15"/>
-      <c r="G181" s="15"/>
-    </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="14" t="n">
-        <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44832</v>
-      </c>
-      <c r="B182" s="15" t="s">
+      <c r="C182" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C182" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D182" s="15" t="s">
+      <c r="D182" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E182" s="15"/>
-      <c r="F182" s="15"/>
-      <c r="G182" s="15"/>
+      <c r="E182" s="14"/>
+      <c r="F182" s="14"/>
+      <c r="G182" s="14"/>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="14" t="n">
+      <c r="A183" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44833</v>
       </c>
-      <c r="B183" s="15" t="s">
+      <c r="B183" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C183" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C183" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D183" s="15" t="s">
+      <c r="D183" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E183" s="15"/>
-      <c r="F183" s="15"/>
-      <c r="G183" s="15"/>
+      <c r="E183" s="14"/>
+      <c r="F183" s="14"/>
+      <c r="G183" s="14"/>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="14" t="n">
+      <c r="A184" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>44834</v>
       </c>
-      <c r="B184" s="15" t="s">
+      <c r="B184" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C184" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C184" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D184" s="15" t="s">
+      <c r="D184" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E184" s="15"/>
-      <c r="F184" s="15"/>
-      <c r="G184" s="15"/>
+      <c r="E184" s="14"/>
+      <c r="F184" s="14"/>
+      <c r="G184" s="14"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/scripts/ESO-2.2m/schedules/P111/schedule-ESO-2.2m-P111.xlsx
+++ b/scripts/ESO-2.2m/schedules/P111/schedule-ESO-2.2m-P111.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="48">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -106,42 +106,45 @@
     <t xml:space="preserve">Ramírez Tannus, Zari</t>
   </si>
   <si>
-    <t xml:space="preserve">Régis, Angela</t>
+    <t xml:space="preserve">Régis, Paul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sam, Paul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moyano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sam, Régis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maren, Sam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angela, Sam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zakhozhay 3hr, Hobson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angela, Régis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maren, Angela</t>
   </si>
   <si>
     <t xml:space="preserve">Sam, Angela</t>
   </si>
   <si>
-    <t xml:space="preserve">Sam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moyano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sam, Régis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maren, Sam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angela, Sam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zakhozhay 3hr, Hobson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angela, Régis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maren, Angela</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ramírez Tannus, Zari, Suppo</t>
   </si>
   <si>
@@ -151,19 +154,10 @@
     <t xml:space="preserve">Dimoff</t>
   </si>
   <si>
-    <t xml:space="preserve">Paul, Maren</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hobson</t>
   </si>
   <si>
-    <t xml:space="preserve">Paul, Régis</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zakhozhay-P110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sam, Paul</t>
   </si>
   <si>
     <t xml:space="preserve">Downtime</t>
@@ -444,9 +438,9 @@
   <dimension ref="A1:G184"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C111" activeCellId="0" sqref="C111"/>
+      <selection pane="bottomLeft" activeCell="D138" activeCellId="0" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -482,7 +476,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="n">
-        <v>44652</v>
+        <v>45017</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>7</v>
@@ -501,7 +495,7 @@
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44653</v>
+        <v>45018</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
@@ -520,7 +514,7 @@
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44654</v>
+        <v>45019</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>7</v>
@@ -539,7 +533,7 @@
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44655</v>
+        <v>45020</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>7</v>
@@ -558,7 +552,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44656</v>
+        <v>45021</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>7</v>
@@ -577,7 +571,7 @@
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44657</v>
+        <v>45022</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>7</v>
@@ -596,7 +590,7 @@
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44658</v>
+        <v>45023</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>7</v>
@@ -615,7 +609,7 @@
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44659</v>
+        <v>45024</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>7</v>
@@ -634,7 +628,7 @@
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44660</v>
+        <v>45025</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>11</v>
@@ -653,7 +647,7 @@
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44661</v>
+        <v>45026</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>11</v>
@@ -672,7 +666,7 @@
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44662</v>
+        <v>45027</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>11</v>
@@ -691,7 +685,7 @@
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44663</v>
+        <v>45028</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>11</v>
@@ -710,7 +704,7 @@
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44664</v>
+        <v>45029</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>11</v>
@@ -729,7 +723,7 @@
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44665</v>
+        <v>45030</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>11</v>
@@ -748,7 +742,7 @@
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44666</v>
+        <v>45031</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>7</v>
@@ -766,7 +760,7 @@
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44667</v>
+        <v>45032</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>7</v>
@@ -784,7 +778,7 @@
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44668</v>
+        <v>45033</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>7</v>
@@ -802,7 +796,7 @@
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44669</v>
+        <v>45034</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>7</v>
@@ -820,7 +814,7 @@
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44670</v>
+        <v>45035</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>7</v>
@@ -838,7 +832,7 @@
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44671</v>
+        <v>45036</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>7</v>
@@ -856,7 +850,7 @@
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44672</v>
+        <v>45037</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>7</v>
@@ -874,7 +868,7 @@
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44673</v>
+        <v>45038</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>7</v>
@@ -892,7 +886,7 @@
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44674</v>
+        <v>45039</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>7</v>
@@ -910,7 +904,7 @@
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44675</v>
+        <v>45040</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>7</v>
@@ -928,7 +922,7 @@
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44676</v>
+        <v>45041</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>7</v>
@@ -946,7 +940,7 @@
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44677</v>
+        <v>45042</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>7</v>
@@ -964,7 +958,7 @@
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44678</v>
+        <v>45043</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>7</v>
@@ -982,7 +976,7 @@
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44679</v>
+        <v>45044</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>7</v>
@@ -1000,7 +994,7 @@
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44680</v>
+        <v>45045</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>7</v>
@@ -1018,7 +1012,7 @@
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44681</v>
+        <v>45046</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>7</v>
@@ -1036,7 +1030,7 @@
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44682</v>
+        <v>45047</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>7</v>
@@ -1054,7 +1048,7 @@
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44683</v>
+        <v>45048</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>7</v>
@@ -1072,7 +1066,7 @@
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44684</v>
+        <v>45049</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>7</v>
@@ -1090,7 +1084,7 @@
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44685</v>
+        <v>45050</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>7</v>
@@ -1108,7 +1102,7 @@
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44686</v>
+        <v>45051</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>7</v>
@@ -1126,7 +1120,7 @@
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44687</v>
+        <v>45052</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>7</v>
@@ -1144,7 +1138,7 @@
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44688</v>
+        <v>45053</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>7</v>
@@ -1162,7 +1156,7 @@
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44689</v>
+        <v>45054</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>7</v>
@@ -1180,7 +1174,7 @@
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44690</v>
+        <v>45055</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>7</v>
@@ -1198,7 +1192,7 @@
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44691</v>
+        <v>45056</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>7</v>
@@ -1216,7 +1210,7 @@
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44692</v>
+        <v>45057</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>7</v>
@@ -1234,7 +1228,7 @@
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44693</v>
+        <v>45058</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>7</v>
@@ -1252,7 +1246,7 @@
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44694</v>
+        <v>45059</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>7</v>
@@ -1270,7 +1264,7 @@
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44695</v>
+        <v>45060</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>7</v>
@@ -1288,7 +1282,7 @@
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44696</v>
+        <v>45061</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>7</v>
@@ -1306,7 +1300,7 @@
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44697</v>
+        <v>45062</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>7</v>
@@ -1324,7 +1318,7 @@
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44698</v>
+        <v>45063</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>7</v>
@@ -1342,7 +1336,7 @@
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44699</v>
+        <v>45064</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>7</v>
@@ -1360,7 +1354,7 @@
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44700</v>
+        <v>45065</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>7</v>
@@ -1378,7 +1372,7 @@
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44701</v>
+        <v>45066</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>7</v>
@@ -1396,7 +1390,7 @@
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44702</v>
+        <v>45067</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>7</v>
@@ -1414,7 +1408,7 @@
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44703</v>
+        <v>45068</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>7</v>
@@ -1432,7 +1426,7 @@
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44704</v>
+        <v>45069</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>7</v>
@@ -1450,7 +1444,7 @@
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44705</v>
+        <v>45070</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>7</v>
@@ -1468,7 +1462,7 @@
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44706</v>
+        <v>45071</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>7</v>
@@ -1477,7 +1471,7 @@
         <v>27</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>10</v>
@@ -1486,7 +1480,7 @@
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44707</v>
+        <v>45072</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>7</v>
@@ -1495,7 +1489,7 @@
         <v>27</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>10</v>
@@ -1504,7 +1498,7 @@
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44708</v>
+        <v>45073</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>7</v>
@@ -1513,7 +1507,7 @@
         <v>27</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>10</v>
@@ -1522,7 +1516,7 @@
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44709</v>
+        <v>45074</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>7</v>
@@ -1531,7 +1525,7 @@
         <v>27</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>10</v>
@@ -1540,7 +1534,7 @@
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44710</v>
+        <v>45075</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>7</v>
@@ -1558,7 +1552,7 @@
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44711</v>
+        <v>45076</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>7</v>
@@ -1576,7 +1570,7 @@
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44712</v>
+        <v>45077</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>7</v>
@@ -1594,7 +1588,7 @@
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44713</v>
+        <v>45078</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>7</v>
@@ -1612,7 +1606,7 @@
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44714</v>
+        <v>45079</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>7</v>
@@ -1630,7 +1624,7 @@
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44715</v>
+        <v>45080</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>7</v>
@@ -1648,7 +1642,7 @@
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="10" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44716</v>
+        <v>45081</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>11</v>
@@ -1667,7 +1661,7 @@
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44717</v>
+        <v>45082</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>11</v>
@@ -1686,7 +1680,7 @@
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="10" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44718</v>
+        <v>45083</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>11</v>
@@ -1705,7 +1699,7 @@
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="10" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44719</v>
+        <v>45084</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>11</v>
@@ -1724,7 +1718,7 @@
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="10" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44720</v>
+        <v>45085</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>11</v>
@@ -1743,7 +1737,7 @@
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="10" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44721</v>
+        <v>45086</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>11</v>
@@ -1762,7 +1756,7 @@
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="10" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44722</v>
+        <v>45087</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>11</v>
@@ -1781,7 +1775,7 @@
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="10" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44723</v>
+        <v>45088</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>11</v>
@@ -1800,7 +1794,7 @@
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="10" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44724</v>
+        <v>45089</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>11</v>
@@ -1819,7 +1813,7 @@
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="10" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44725</v>
+        <v>45090</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>11</v>
@@ -1838,7 +1832,7 @@
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44726</v>
+        <v>45091</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>7</v>
@@ -1856,7 +1850,7 @@
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44727</v>
+        <v>45092</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>7</v>
@@ -1874,7 +1868,7 @@
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44728</v>
+        <v>45093</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>7</v>
@@ -1892,7 +1886,7 @@
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44729</v>
+        <v>45094</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>7</v>
@@ -1910,7 +1904,7 @@
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44730</v>
+        <v>45095</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>7</v>
@@ -1928,7 +1922,7 @@
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="11" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44731</v>
+        <v>45096</v>
       </c>
       <c r="B81" s="12" t="s">
         <v>34</v>
@@ -1945,7 +1939,7 @@
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="11" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44732</v>
+        <v>45097</v>
       </c>
       <c r="B82" s="12" t="s">
         <v>34</v>
@@ -1962,7 +1956,7 @@
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="11" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44733</v>
+        <v>45098</v>
       </c>
       <c r="B83" s="12" t="s">
         <v>34</v>
@@ -1979,7 +1973,7 @@
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="11" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44734</v>
+        <v>45099</v>
       </c>
       <c r="B84" s="12" t="s">
         <v>34</v>
@@ -1996,7 +1990,7 @@
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="11" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44735</v>
+        <v>45100</v>
       </c>
       <c r="B85" s="12" t="s">
         <v>34</v>
@@ -2013,7 +2007,7 @@
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="11" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44736</v>
+        <v>45101</v>
       </c>
       <c r="B86" s="12" t="s">
         <v>34</v>
@@ -2030,7 +2024,7 @@
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="11" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44737</v>
+        <v>45102</v>
       </c>
       <c r="B87" s="12" t="s">
         <v>34</v>
@@ -2047,7 +2041,7 @@
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="11" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44738</v>
+        <v>45103</v>
       </c>
       <c r="B88" s="12" t="s">
         <v>34</v>
@@ -2064,7 +2058,7 @@
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="11" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44739</v>
+        <v>45104</v>
       </c>
       <c r="B89" s="12" t="s">
         <v>34</v>
@@ -2081,7 +2075,7 @@
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="11" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44740</v>
+        <v>45105</v>
       </c>
       <c r="B90" s="12" t="s">
         <v>34</v>
@@ -2098,7 +2092,7 @@
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44741</v>
+        <v>45106</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>7</v>
@@ -2116,7 +2110,7 @@
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44742</v>
+        <v>45107</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>7</v>
@@ -2134,7 +2128,7 @@
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44743</v>
+        <v>45108</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>7</v>
@@ -2152,7 +2146,7 @@
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44744</v>
+        <v>45109</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>7</v>
@@ -2170,7 +2164,7 @@
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44745</v>
+        <v>45110</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>7</v>
@@ -2188,7 +2182,7 @@
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44746</v>
+        <v>45111</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>7</v>
@@ -2206,7 +2200,7 @@
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44747</v>
+        <v>45112</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>7</v>
@@ -2224,7 +2218,7 @@
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44748</v>
+        <v>45113</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>7</v>
@@ -2242,7 +2236,7 @@
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44749</v>
+        <v>45114</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>7</v>
@@ -2260,7 +2254,7 @@
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44750</v>
+        <v>45115</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>7</v>
@@ -2278,7 +2272,7 @@
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44751</v>
+        <v>45116</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>7</v>
@@ -2296,7 +2290,7 @@
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44752</v>
+        <v>45117</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>7</v>
@@ -2314,7 +2308,7 @@
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44753</v>
+        <v>45118</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>7</v>
@@ -2332,7 +2326,7 @@
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44754</v>
+        <v>45119</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>7</v>
@@ -2350,7 +2344,7 @@
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44755</v>
+        <v>45120</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>7</v>
@@ -2368,7 +2362,7 @@
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44756</v>
+        <v>45121</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>7</v>
@@ -2386,7 +2380,7 @@
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44757</v>
+        <v>45122</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>7</v>
@@ -2404,7 +2398,7 @@
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44758</v>
+        <v>45123</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>7</v>
@@ -2422,7 +2416,7 @@
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44759</v>
+        <v>45124</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>7</v>
@@ -2440,7 +2434,7 @@
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44760</v>
+        <v>45125</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>7</v>
@@ -2458,7 +2452,7 @@
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44761</v>
+        <v>45126</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>7</v>
@@ -2476,7 +2470,7 @@
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44762</v>
+        <v>45127</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>7</v>
@@ -2494,7 +2488,7 @@
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44763</v>
+        <v>45128</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>7</v>
@@ -2512,7 +2506,7 @@
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44764</v>
+        <v>45129</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>7</v>
@@ -2530,7 +2524,7 @@
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44765</v>
+        <v>45130</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>7</v>
@@ -2548,7 +2542,7 @@
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44766</v>
+        <v>45131</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>7</v>
@@ -2557,7 +2551,7 @@
         <v>27</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F116" s="7" t="s">
         <v>10</v>
@@ -2566,7 +2560,7 @@
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44767</v>
+        <v>45132</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>7</v>
@@ -2575,7 +2569,7 @@
         <v>27</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F117" s="7" t="s">
         <v>10</v>
@@ -2584,7 +2578,7 @@
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44768</v>
+        <v>45133</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>7</v>
@@ -2593,7 +2587,7 @@
         <v>27</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F118" s="7" t="s">
         <v>10</v>
@@ -2602,13 +2596,13 @@
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44769</v>
+        <v>45134</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>30</v>
@@ -2620,7 +2614,7 @@
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44770</v>
+        <v>45135</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>7</v>
@@ -2638,7 +2632,7 @@
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44771</v>
+        <v>45136</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>7</v>
@@ -2656,7 +2650,7 @@
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44772</v>
+        <v>45137</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>7</v>
@@ -2674,7 +2668,7 @@
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44773</v>
+        <v>45138</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>7</v>
@@ -2683,7 +2677,7 @@
         <v>27</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F123" s="7" t="s">
         <v>10</v>
@@ -2692,7 +2686,7 @@
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44774</v>
+        <v>45139</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>7</v>
@@ -2701,7 +2695,7 @@
         <v>27</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F124" s="7" t="s">
         <v>10</v>
@@ -2710,7 +2704,7 @@
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44775</v>
+        <v>45140</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>7</v>
@@ -2719,7 +2713,7 @@
         <v>27</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F125" s="7" t="s">
         <v>10</v>
@@ -2728,13 +2722,13 @@
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44776</v>
+        <v>45141</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>14</v>
@@ -2746,13 +2740,13 @@
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44777</v>
+        <v>45142</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>14</v>
@@ -2764,13 +2758,13 @@
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44778</v>
+        <v>45143</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>14</v>
@@ -2782,13 +2776,13 @@
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44779</v>
+        <v>45144</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>14</v>
@@ -2800,16 +2794,16 @@
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44780</v>
+        <v>45145</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="F130" s="7" t="s">
         <v>10</v>
@@ -2818,7 +2812,7 @@
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44781</v>
+        <v>45146</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>7</v>
@@ -2827,7 +2821,7 @@
         <v>44</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="F131" s="7" t="s">
         <v>10</v>
@@ -2836,7 +2830,7 @@
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44782</v>
+        <v>45147</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>7</v>
@@ -2845,7 +2839,7 @@
         <v>44</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="F132" s="7" t="s">
         <v>10</v>
@@ -2854,7 +2848,7 @@
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44783</v>
+        <v>45148</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>7</v>
@@ -2863,7 +2857,7 @@
         <v>44</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F133" s="7" t="s">
         <v>10</v>
@@ -2872,7 +2866,7 @@
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44784</v>
+        <v>45149</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>7</v>
@@ -2881,7 +2875,7 @@
         <v>44</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F134" s="7" t="s">
         <v>10</v>
@@ -2890,7 +2884,7 @@
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44785</v>
+        <v>45150</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>7</v>
@@ -2899,7 +2893,7 @@
         <v>44</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F135" s="7" t="s">
         <v>10</v>
@@ -2908,7 +2902,7 @@
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44786</v>
+        <v>45151</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>7</v>
@@ -2917,7 +2911,7 @@
         <v>24</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F136" s="7" t="s">
         <v>10</v>
@@ -2926,7 +2920,7 @@
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44787</v>
+        <v>45152</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>7</v>
@@ -2935,7 +2929,7 @@
         <v>24</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F137" s="7" t="s">
         <v>10</v>
@@ -2944,7 +2938,7 @@
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44788</v>
+        <v>45153</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>7</v>
@@ -2953,7 +2947,7 @@
         <v>24</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F138" s="7" t="s">
         <v>10</v>
@@ -2962,7 +2956,7 @@
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44789</v>
+        <v>45154</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>7</v>
@@ -2971,7 +2965,7 @@
         <v>24</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F139" s="7" t="s">
         <v>10</v>
@@ -2980,7 +2974,7 @@
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44790</v>
+        <v>45155</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>7</v>
@@ -2998,7 +2992,7 @@
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44791</v>
+        <v>45156</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>7</v>
@@ -3016,7 +3010,7 @@
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44792</v>
+        <v>45157</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>7</v>
@@ -3034,7 +3028,7 @@
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44793</v>
+        <v>45158</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>7</v>
@@ -3052,13 +3046,13 @@
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44794</v>
+        <v>45159</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>32</v>
@@ -3070,13 +3064,13 @@
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44795</v>
+        <v>45160</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>32</v>
@@ -3088,13 +3082,13 @@
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44796</v>
+        <v>45161</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>32</v>
@@ -3106,13 +3100,13 @@
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44797</v>
+        <v>45162</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>30</v>
@@ -3124,13 +3118,13 @@
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44798</v>
+        <v>45163</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>30</v>
@@ -3142,13 +3136,13 @@
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44799</v>
+        <v>45164</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>30</v>
@@ -3160,13 +3154,13 @@
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44800</v>
+        <v>45165</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>30</v>
@@ -3178,7 +3172,7 @@
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44801</v>
+        <v>45166</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>7</v>
@@ -3187,7 +3181,7 @@
         <v>22</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F151" s="7" t="s">
         <v>10</v>
@@ -3196,7 +3190,7 @@
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44802</v>
+        <v>45167</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>7</v>
@@ -3205,7 +3199,7 @@
         <v>22</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F152" s="7" t="s">
         <v>10</v>
@@ -3214,7 +3208,7 @@
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44803</v>
+        <v>45168</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>7</v>
@@ -3223,7 +3217,7 @@
         <v>22</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F153" s="7" t="s">
         <v>10</v>
@@ -3232,7 +3226,7 @@
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44804</v>
+        <v>45169</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>7</v>
@@ -3250,7 +3244,7 @@
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44805</v>
+        <v>45170</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>7</v>
@@ -3268,13 +3262,13 @@
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44806</v>
+        <v>45171</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D156" s="14" t="s">
         <v>17</v>
@@ -3286,13 +3280,13 @@
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44807</v>
+        <v>45172</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D157" s="14" t="s">
         <v>17</v>
@@ -3304,13 +3298,13 @@
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44808</v>
+        <v>45173</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D158" s="14" t="s">
         <v>19</v>
@@ -3322,13 +3316,13 @@
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44809</v>
+        <v>45174</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D159" s="14" t="s">
         <v>19</v>
@@ -3340,13 +3334,13 @@
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44810</v>
+        <v>45175</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D160" s="14" t="s">
         <v>19</v>
@@ -3358,13 +3352,13 @@
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44811</v>
+        <v>45176</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D161" s="14" t="s">
         <v>20</v>
@@ -3376,13 +3370,13 @@
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44812</v>
+        <v>45177</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C162" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D162" s="14" t="s">
         <v>20</v>
@@ -3394,13 +3388,13 @@
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44813</v>
+        <v>45178</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C163" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D163" s="14" t="s">
         <v>20</v>
@@ -3412,13 +3406,13 @@
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44814</v>
+        <v>45179</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D164" s="14" t="s">
         <v>20</v>
@@ -3430,13 +3424,13 @@
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44815</v>
+        <v>45180</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C165" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D165" s="14" t="s">
         <v>19</v>
@@ -3448,13 +3442,13 @@
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44816</v>
+        <v>45181</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C166" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D166" s="14" t="s">
         <v>19</v>
@@ -3466,13 +3460,13 @@
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44817</v>
+        <v>45182</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C167" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D167" s="14" t="s">
         <v>19</v>
@@ -3484,13 +3478,13 @@
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44818</v>
+        <v>45183</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D168" s="14" t="s">
         <v>17</v>
@@ -3502,13 +3496,13 @@
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44819</v>
+        <v>45184</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C169" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D169" s="14" t="s">
         <v>17</v>
@@ -3520,13 +3514,13 @@
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44820</v>
+        <v>45185</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D170" s="14" t="s">
         <v>17</v>
@@ -3538,13 +3532,13 @@
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44821</v>
+        <v>45186</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C171" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D171" s="14" t="s">
         <v>17</v>
@@ -3556,16 +3550,16 @@
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44822</v>
+        <v>45187</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D172" s="14" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E172" s="14"/>
       <c r="F172" s="14"/>
@@ -3574,16 +3568,16 @@
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44823</v>
+        <v>45188</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D173" s="14" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E173" s="14"/>
       <c r="F173" s="14"/>
@@ -3592,16 +3586,16 @@
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44824</v>
+        <v>45189</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C174" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D174" s="14" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E174" s="14"/>
       <c r="F174" s="14"/>
@@ -3610,13 +3604,13 @@
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44825</v>
+        <v>45190</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C175" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D175" s="14" t="s">
         <v>30</v>
@@ -3628,13 +3622,13 @@
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44826</v>
+        <v>45191</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D176" s="14" t="s">
         <v>30</v>
@@ -3646,13 +3640,13 @@
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44827</v>
+        <v>45192</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C177" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D177" s="14" t="s">
         <v>30</v>
@@ -3664,13 +3658,13 @@
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44828</v>
+        <v>45193</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D178" s="14" t="s">
         <v>30</v>
@@ -3682,16 +3676,16 @@
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44829</v>
+        <v>45194</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D179" s="14" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E179" s="14"/>
       <c r="F179" s="14"/>
@@ -3700,16 +3694,16 @@
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44830</v>
+        <v>45195</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D180" s="14" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E180" s="14"/>
       <c r="F180" s="14"/>
@@ -3718,16 +3712,16 @@
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44831</v>
+        <v>45196</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C181" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D181" s="14" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E181" s="14"/>
       <c r="F181" s="14"/>
@@ -3736,13 +3730,13 @@
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44832</v>
+        <v>45197</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C182" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D182" s="14" t="s">
         <v>17</v>
@@ -3754,13 +3748,13 @@
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44833</v>
+        <v>45198</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C183" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D183" s="14" t="s">
         <v>17</v>
@@ -3772,13 +3766,13 @@
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="13" t="n">
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
-        <v>44834</v>
+        <v>45199</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C184" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D184" s="14" t="s">
         <v>17</v>

--- a/scripts/ESO-2.2m/schedules/P111/schedule-ESO-2.2m-P111.xlsx
+++ b/scripts/ESO-2.2m/schedules/P111/schedule-ESO-2.2m-P111.xlsx
@@ -440,7 +440,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D138" activeCellId="0" sqref="D138"/>
+      <selection pane="bottomLeft" activeCell="G79" activeCellId="0" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/scripts/ESO-2.2m/schedules/P111/schedule-ESO-2.2m-P111.xlsx
+++ b/scripts/ESO-2.2m/schedules/P111/schedule-ESO-2.2m-P111.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="49">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -160,10 +160,13 @@
     <t xml:space="preserve">Zakhozhay-P110</t>
   </si>
   <si>
-    <t xml:space="preserve">Downtime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dome repair</t>
+    <t xml:space="preserve">Chaname, Hobson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tannus, Zari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External</t>
   </si>
 </sst>
 </file>
@@ -438,9 +441,9 @@
   <dimension ref="A1:G184"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G79" activeCellId="0" sqref="G79"/>
+      <selection pane="bottomLeft" activeCell="C154" activeCellId="0" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3264,11 +3267,11 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>45171</v>
       </c>
-      <c r="B156" s="14" t="s">
+      <c r="B156" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" s="14" t="s">
         <v>46</v>
-      </c>
-      <c r="C156" s="14" t="s">
-        <v>47</v>
       </c>
       <c r="D156" s="14" t="s">
         <v>17</v>
@@ -3282,11 +3285,11 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>45172</v>
       </c>
-      <c r="B157" s="14" t="s">
+      <c r="B157" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" s="14" t="s">
         <v>46</v>
-      </c>
-      <c r="C157" s="14" t="s">
-        <v>47</v>
       </c>
       <c r="D157" s="14" t="s">
         <v>17</v>
@@ -3300,14 +3303,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>45173</v>
       </c>
-      <c r="B158" s="14" t="s">
+      <c r="B158" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C158" s="14" t="s">
-        <v>47</v>
-      </c>
       <c r="D158" s="14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E158" s="14"/>
       <c r="F158" s="14"/>
@@ -3318,14 +3321,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>45174</v>
       </c>
-      <c r="B159" s="14" t="s">
+      <c r="B159" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C159" s="14" t="s">
-        <v>47</v>
-      </c>
       <c r="D159" s="14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E159" s="14"/>
       <c r="F159" s="14"/>
@@ -3336,14 +3339,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>45175</v>
       </c>
-      <c r="B160" s="14" t="s">
+      <c r="B160" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C160" s="14" t="s">
-        <v>47</v>
-      </c>
       <c r="D160" s="14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E160" s="14"/>
       <c r="F160" s="14"/>
@@ -3354,14 +3357,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>45176</v>
       </c>
-      <c r="B161" s="14" t="s">
+      <c r="B161" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C161" s="14" t="s">
-        <v>47</v>
-      </c>
       <c r="D161" s="14" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E161" s="14"/>
       <c r="F161" s="14"/>
@@ -3372,14 +3375,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>45177</v>
       </c>
-      <c r="B162" s="14" t="s">
+      <c r="B162" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C162" s="14" t="s">
-        <v>47</v>
-      </c>
       <c r="D162" s="14" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E162" s="14"/>
       <c r="F162" s="14"/>
@@ -3390,14 +3393,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>45178</v>
       </c>
-      <c r="B163" s="14" t="s">
+      <c r="B163" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C163" s="14" t="s">
-        <v>47</v>
-      </c>
       <c r="D163" s="14" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E163" s="14"/>
       <c r="F163" s="14"/>
@@ -3408,14 +3411,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>45179</v>
       </c>
-      <c r="B164" s="14" t="s">
+      <c r="B164" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C164" s="14" t="s">
-        <v>47</v>
-      </c>
       <c r="D164" s="14" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E164" s="14"/>
       <c r="F164" s="14"/>
@@ -3426,14 +3429,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>45180</v>
       </c>
-      <c r="B165" s="14" t="s">
+      <c r="B165" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C165" s="14" t="s">
-        <v>47</v>
-      </c>
       <c r="D165" s="14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E165" s="14"/>
       <c r="F165" s="14"/>
@@ -3444,14 +3447,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>45181</v>
       </c>
-      <c r="B166" s="14" t="s">
+      <c r="B166" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C166" s="14" t="s">
-        <v>47</v>
-      </c>
       <c r="D166" s="14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E166" s="14"/>
       <c r="F166" s="14"/>
@@ -3462,14 +3465,14 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>45182</v>
       </c>
-      <c r="B167" s="14" t="s">
+      <c r="B167" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C167" s="14" t="s">
-        <v>47</v>
-      </c>
       <c r="D167" s="14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E167" s="14"/>
       <c r="F167" s="14"/>
@@ -3480,8 +3483,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>45183</v>
       </c>
-      <c r="B168" s="14" t="s">
-        <v>46</v>
+      <c r="B168" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="C168" s="14" t="s">
         <v>47</v>
@@ -3498,8 +3501,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>45184</v>
       </c>
-      <c r="B169" s="14" t="s">
-        <v>46</v>
+      <c r="B169" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="C169" s="14" t="s">
         <v>47</v>
@@ -3516,8 +3519,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>45185</v>
       </c>
-      <c r="B170" s="14" t="s">
-        <v>46</v>
+      <c r="B170" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="C170" s="14" t="s">
         <v>47</v>
@@ -3534,8 +3537,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>45186</v>
       </c>
-      <c r="B171" s="14" t="s">
-        <v>46</v>
+      <c r="B171" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="C171" s="14" t="s">
         <v>47</v>
@@ -3552,8 +3555,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>45187</v>
       </c>
-      <c r="B172" s="14" t="s">
-        <v>46</v>
+      <c r="B172" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="C172" s="14" t="s">
         <v>47</v>
@@ -3570,8 +3573,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>45188</v>
       </c>
-      <c r="B173" s="14" t="s">
-        <v>46</v>
+      <c r="B173" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="C173" s="14" t="s">
         <v>47</v>
@@ -3588,8 +3591,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>45189</v>
       </c>
-      <c r="B174" s="14" t="s">
-        <v>46</v>
+      <c r="B174" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="C174" s="14" t="s">
         <v>47</v>
@@ -3606,8 +3609,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>45190</v>
       </c>
-      <c r="B175" s="14" t="s">
-        <v>46</v>
+      <c r="B175" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="C175" s="14" t="s">
         <v>47</v>
@@ -3624,8 +3627,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>45191</v>
       </c>
-      <c r="B176" s="14" t="s">
-        <v>46</v>
+      <c r="B176" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="C176" s="14" t="s">
         <v>47</v>
@@ -3642,8 +3645,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>45192</v>
       </c>
-      <c r="B177" s="14" t="s">
-        <v>46</v>
+      <c r="B177" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="C177" s="14" t="s">
         <v>47</v>
@@ -3660,8 +3663,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>45193</v>
       </c>
-      <c r="B178" s="14" t="s">
-        <v>46</v>
+      <c r="B178" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="C178" s="14" t="s">
         <v>47</v>
@@ -3678,8 +3681,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>45194</v>
       </c>
-      <c r="B179" s="14" t="s">
-        <v>46</v>
+      <c r="B179" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="C179" s="14" t="s">
         <v>47</v>
@@ -3696,8 +3699,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>45195</v>
       </c>
-      <c r="B180" s="14" t="s">
-        <v>46</v>
+      <c r="B180" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="C180" s="14" t="s">
         <v>47</v>
@@ -3714,8 +3717,8 @@
         <f aca="false">(ROW()-ROW(A$2))+A$2</f>
         <v>45196</v>
       </c>
-      <c r="B181" s="14" t="s">
-        <v>46</v>
+      <c r="B181" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="C181" s="14" t="s">
         <v>47</v>
@@ -3733,10 +3736,10 @@
         <v>45197</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C182" s="14" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D182" s="14" t="s">
         <v>17</v>
@@ -3751,10 +3754,10 @@
         <v>45198</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C183" s="14" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D183" s="14" t="s">
         <v>17</v>
@@ -3769,10 +3772,10 @@
         <v>45199</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C184" s="14" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D184" s="14" t="s">
         <v>17</v>
